--- a/Techspec/Spec.xlsx
+++ b/Techspec/Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\The Anh\Ban huong\Techspec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\The Anh\Ban huong\May-Ban-Huong\Techspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949E5637-1451-4025-8B27-B7253394EB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65416B0-DADE-4D31-885F-1C5C13261ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW_SPEC" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Tính năng</t>
   </si>
@@ -192,6 +192,24 @@
   </si>
   <si>
     <t>ghi chú</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>3pin</t>
+  </si>
+  <si>
+    <t>5pin</t>
+  </si>
+  <si>
+    <t>IDC10</t>
+  </si>
+  <si>
+    <t>IDC20</t>
+  </si>
+  <si>
+    <t>4Pin</t>
   </si>
 </sst>
 </file>
@@ -255,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -279,29 +297,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -310,9 +311,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -323,54 +322,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -378,59 +329,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -444,7 +373,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -505,7 +436,31 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -531,6 +486,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -545,12 +516,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -567,14 +540,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF2A73ED-A598-4CB8-BF84-3921023065CC}" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:E20" xr:uid="{CF2A73ED-A598-4CB8-BF84-3921023065CC}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF2A73ED-A598-4CB8-BF84-3921023065CC}" name="Table1" displayName="Table1" ref="A1:F20" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F20" xr:uid="{CF2A73ED-A598-4CB8-BF84-3921023065CC}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A356AF16-D290-4869-803E-26C93F06A9CE}" name="STT" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{4A387D7C-6B9A-4751-933F-D6768A1CEA0E}" name="Tính năng" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{B32D8E49-8E41-4F79-89F9-B70726F86999}" name="Yêu cầu" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{3E532395-7859-436A-BBBD-59C18011C778}" name="Khuyến cáo" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{C81E754A-5CC2-42CE-80F4-CA537F9388BE}" name="Số Lượng" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{3E532395-7859-436A-BBBD-59C18011C778}" name="Khuyến cáo" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{C81E754A-5CC2-42CE-80F4-CA537F9388BE}" name="Số Lượng" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{BBFA0ACC-3030-4D90-A5D0-01C4BA5F4EBF}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -843,40 +817,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="A1:E20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.86328125" customWidth="1"/>
     <col min="4" max="4" width="24.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
+      <c r="F1" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -885,30 +862,32 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -917,15 +896,16 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -934,15 +914,16 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -951,50 +932,57 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
-        <v>6</v>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -1002,171 +990,195 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="7">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="7">
+      <c r="F19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1182,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DB534A-0B0E-45CC-B81C-72D715471D86}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1195,16 +1207,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Techspec/Spec.xlsx
+++ b/Techspec/Spec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\The Anh\Ban huong\May-Ban-Huong\Techspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65416B0-DADE-4D31-885F-1C5C13261ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D37E81-A2B4-442C-86D8-4EAE5F728196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Tính năng</t>
   </si>
@@ -210,6 +210,21 @@
   </si>
   <si>
     <t>4Pin</t>
+  </si>
+  <si>
+    <t>EDG5.08</t>
+  </si>
+  <si>
+    <t>XH2.54</t>
+  </si>
+  <si>
+    <t>24V output</t>
+  </si>
+  <si>
+    <t>220V output</t>
+  </si>
+  <si>
+    <t>Signal 24V</t>
   </si>
 </sst>
 </file>
@@ -329,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -341,6 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,6 +553,273 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1381126</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1262221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0C4057-C648-18D6-84B8-B6C52636E4CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13191775" y="4314825"/>
+          <a:ext cx="1343376" cy="1109821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101651</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1223962</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1317676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC10F24-5944-063E-1150-3BEAB0D50DE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11703101" y="4267200"/>
+          <a:ext cx="1122311" cy="1212901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1433513</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1490748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E884C8FD-7492-0658-E2C1-F2C36D9077F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="-129" t="9575" r="54494" b="34199"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13225463" y="5810250"/>
+          <a:ext cx="1362075" cy="1419311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>108412</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1443037</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1495510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5247F2-EA24-4825-B894-9EB15E848A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="37528" t="2406" r="30719" b="56461"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11709862" y="5772150"/>
+          <a:ext cx="1334625" cy="1462173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>72012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1431413</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1062038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{854B5A3E-F662-21CE-9507-E918D15B937E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11663363" y="7387212"/>
+          <a:ext cx="1369500" cy="990026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60761</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1327288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883B96AF-DD80-F240-7C6C-22F12581B235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13214786" y="7396163"/>
+          <a:ext cx="1387039" cy="1246325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -817,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -830,9 +1113,11 @@
     <col min="3" max="3" width="52.86328125" customWidth="1"/>
     <col min="4" max="4" width="24.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.86328125" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="21.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -852,7 +1137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -867,8 +1152,9 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -885,8 +1171,9 @@
         <v>1</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -903,8 +1190,9 @@
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -921,8 +1209,9 @@
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -939,8 +1228,9 @@
         <v>1</v>
       </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -959,8 +1249,9 @@
       <c r="F7" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -979,8 +1270,9 @@
       <c r="F8" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -999,8 +1291,9 @@
       <c r="F9" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1019,8 +1312,9 @@
       <c r="F10" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1039,8 +1333,9 @@
       <c r="F11" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1057,8 +1352,9 @@
         <v>1</v>
       </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1075,8 +1371,9 @@
       <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1095,8 +1392,9 @@
       <c r="F14" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1110,7 +1408,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1124,7 +1422,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1132,7 +1430,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1149,8 +1447,9 @@
         <v>5</v>
       </c>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1167,8 +1466,9 @@
       <c r="F19" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1180,12 +1480,45 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
+    <row r="23" spans="1:11" ht="124.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5557</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="124.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="124.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="124.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:11" ht="124.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
